--- a/public/excel/Employees and Dependents.xlsx
+++ b/public/excel/Employees and Dependents.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRIC/FIN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth (DD/MM/YYYY)</t>
@@ -37,10 +31,10 @@
     <t xml:space="preserve">Work Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Area Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
+    <t xml:space="preserve">Mobile Country Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Number</t>
   </si>
   <si>
     <t xml:space="preserve">Postal Code</t>
@@ -55,13 +49,7 @@
     <t xml:space="preserve">Start Date (DD/MM/YYYY)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 1 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 1 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 1 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 1 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 1 Date of Birth</t>
@@ -70,13 +58,7 @@
     <t xml:space="preserve">Dependent 1 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 2 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 2 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 2 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 2 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 2 Date of Birth</t>
@@ -85,13 +67,7 @@
     <t xml:space="preserve">Dependent 2 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 3 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 3 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 3 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 3 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 3 Date of Birth</t>
@@ -100,13 +76,7 @@
     <t xml:space="preserve">Dependent 3 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 4 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 4 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 4 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 4 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 4 Date of Birth</t>
@@ -115,13 +85,7 @@
     <t xml:space="preserve">Dependent 4 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 5 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 5 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 5 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 5 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 5 Date of Birth</t>
@@ -240,70 +204,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y11" activeCellId="0" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="25" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -312,13 +265,13 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
@@ -360,62 +313,7 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/public/excel/Employees and Dependents.xlsx
+++ b/public/excel/Employees and Dependents.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRIC/FIN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth (DD/MM/YYYY)</t>
@@ -55,13 +49,7 @@
     <t xml:space="preserve">Start Date (DD/MM/YYYY)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 1 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 1 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 1 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 1 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 1 Date of Birth</t>
@@ -70,13 +58,7 @@
     <t xml:space="preserve">Dependent 1 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 2 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 2 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 2 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 2 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 2 Date of Birth</t>
@@ -85,13 +67,7 @@
     <t xml:space="preserve">Dependent 2 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 3 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 3 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 3 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 3 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 3 Date of Birth</t>
@@ -100,13 +76,7 @@
     <t xml:space="preserve">Dependent 3 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 4 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 4 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 4 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 4 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 4 Date of Birth</t>
@@ -115,13 +85,7 @@
     <t xml:space="preserve">Dependent 4 Relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent 5 First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 5 Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent 5 NRIC/FIN</t>
+    <t xml:space="preserve">Dependent 5 Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Dependent 5 Date of Birth</t>
@@ -240,70 +204,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="25" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -312,13 +265,13 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
@@ -360,62 +313,7 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/public/excel/Employees and Dependents.xlsx
+++ b/public/excel/Employees and Dependents.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Mobile Country Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile</t>
+    <t xml:space="preserve">Mobile Number</t>
   </si>
   <si>
     <t xml:space="preserve">Postal Code</t>
@@ -206,8 +206,8 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/excel/Employees and Dependents.xlsx
+++ b/public/excel/Employees and Dependents.xlsx
@@ -206,8 +206,8 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X:X"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,6 +345,28 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1" type="list">
+      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O1" type="list">
+      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R1" type="list">
+      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U1" type="list">
+      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X1" type="list">
+      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/excel/Employees and Dependents.xlsx
+++ b/public/excel/Employees and Dependents.xlsx
@@ -174,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +184,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,7 +211,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X:X"/>
+      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,7 +278,7 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
@@ -283,7 +287,7 @@
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
@@ -292,7 +296,7 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="0" t="s">
@@ -301,7 +305,7 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="0" t="s">
@@ -310,7 +314,7 @@
       <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -345,25 +349,13 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1" type="list">
-      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="L1" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O1" type="list">
-      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R1" type="list">
-      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U1" type="list">
-      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X1" type="list">
-      <formula1>"Spouse,Child,Sibling,Parent,Family"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O1 R1 U1 X1" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
